--- a/analysis/post_gemini_data/participant210/task_med.xlsx
+++ b/analysis/post_gemini_data/participant210/task_med.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,995 +422,691 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg5</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>arg7</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>assign2</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>condbody2</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>condsta3</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>condstat</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>condstat2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>exceptin</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>loopody</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>loopstat</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methddec</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methdocall</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>methdocall2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>methdocall3</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>methdocall4</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>methdocall5</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>methdocall6</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>param2</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>arg</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>arg2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>arg3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>arg5</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>arg6</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>arg7</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>assign2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>condbody</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>condbody2</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>condsta3</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>condstat</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>condstat2</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>exceptin</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>gemini</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>literal</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>literal2</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>loopody</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>loopstat</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>methddec</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>methdocall</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>methdocall2</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>methdocall3</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>methdocall4</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>methdocall5</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>methdocall6</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>param2</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>var2</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>var3</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fixation based metrics</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fixation based metrics</t>
+          <t>Revisit count</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>29</v>
+      </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>6</v>
+      </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
       <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>35</v>
+      </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Revisit count</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+          <t>Fixation count</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>23</v>
-      </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M4" t="n">
-        <v>29</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
       <c r="R4" t="n">
-        <v>29</v>
+        <v>369</v>
       </c>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>20</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="n">
         <v>2</v>
       </c>
-      <c r="U4" t="n">
-        <v>83</v>
-      </c>
-      <c r="V4" t="n">
-        <v>11</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>10</v>
-      </c>
       <c r="AC4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
-        <v>87</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>7</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fixation count</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
+          <t>Dwell time (ms)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
+        <v>684.05</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>1017.82</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>767.51</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>116.68</v>
       </c>
       <c r="H5" t="n">
-        <v>32</v>
+        <v>1334.67</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>2686.36</v>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
-      </c>
-      <c r="K5" t="n">
-        <v>18</v>
-      </c>
+        <v>5922.44</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>93</v>
+        <v>3720.57</v>
       </c>
       <c r="M5" t="n">
-        <v>44</v>
-      </c>
-      <c r="N5" t="n">
-        <v>21</v>
-      </c>
+        <v>1952.26</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>21</v>
+        <v>1001.05</v>
       </c>
       <c r="P5" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q5" t="inlineStr"/>
+        <v>650.55</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>116.68</v>
+      </c>
       <c r="R5" t="n">
-        <v>369</v>
+        <v>104593.2</v>
       </c>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>7</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>170</v>
-      </c>
-      <c r="V5" t="n">
-        <v>18</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5</v>
-      </c>
+        <v>5521.96</v>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>433.77</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>1001.05</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>917.71</v>
       </c>
       <c r="AC5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2</v>
-      </c>
+        <v>400.44</v>
+      </c>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>324</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>8</v>
-      </c>
+        <v>141228.6</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>317.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1384.79</v>
-      </c>
+          <t>Dwell time (%)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>2519.03</v>
-      </c>
-      <c r="D6" t="n">
-        <v>517.1900000000001</v>
-      </c>
+        <v>0.22</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>3804.02</v>
+        <v>0.32</v>
       </c>
       <c r="F6" t="n">
-        <v>1334.73</v>
+        <v>0.24</v>
       </c>
       <c r="G6" t="n">
-        <v>4321.23</v>
+        <v>0.04</v>
       </c>
       <c r="H6" t="n">
-        <v>18469.68</v>
+        <v>0.42</v>
       </c>
       <c r="I6" t="n">
-        <v>19020.28</v>
+        <v>0.85</v>
       </c>
       <c r="J6" t="n">
-        <v>88527.12</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12329.43</v>
-      </c>
+        <v>1.87</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>43412.69</v>
+        <v>1.17</v>
       </c>
       <c r="M6" t="n">
-        <v>21906.99</v>
-      </c>
-      <c r="N6" t="n">
-        <v>12079.26</v>
-      </c>
+        <v>0.62</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>12213.5</v>
+        <v>0.32</v>
       </c>
       <c r="P6" t="n">
-        <v>19053.62</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+        <v>0.21</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.04</v>
+      </c>
       <c r="R6" t="n">
-        <v>104593.22</v>
+        <v>33.03</v>
       </c>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>3336.85</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>78932.62</v>
-      </c>
-      <c r="V6" t="n">
-        <v>8842.43</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2619.4</v>
-      </c>
-      <c r="X6" t="n">
-        <v>9209.360000000001</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2552.1</v>
-      </c>
+        <v>1.74</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>3019.84</v>
+        <v>0.14</v>
       </c>
       <c r="AA6" t="n">
-        <v>7808.75</v>
+        <v>0.32</v>
       </c>
       <c r="AB6" t="n">
-        <v>4655.03</v>
+        <v>0.29</v>
       </c>
       <c r="AC6" t="n">
-        <v>13197.82</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1134.56</v>
-      </c>
+        <v>0.13</v>
+      </c>
+      <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>181581.93</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>2953.12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>5355.28</v>
-      </c>
+        <v>44.54</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>11462.31</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.44</v>
-      </c>
+          <t>Fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.17</v>
-      </c>
+        <v>342.03</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1.22</v>
+        <v>339.27</v>
       </c>
       <c r="F7" t="n">
-        <v>0.43</v>
+        <v>383.76</v>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>116.68</v>
       </c>
       <c r="H7" t="n">
-        <v>5.9</v>
+        <v>266.93</v>
       </c>
       <c r="I7" t="n">
-        <v>6.08</v>
+        <v>335.79</v>
       </c>
       <c r="J7" t="n">
-        <v>28.28</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.94</v>
-      </c>
+        <v>269.2</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>13.87</v>
+        <v>286.2</v>
       </c>
       <c r="M7" t="n">
-        <v>7</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.86</v>
-      </c>
+        <v>325.38</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>3.9</v>
+        <v>250.26</v>
       </c>
       <c r="P7" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+        <v>216.85</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>116.68</v>
+      </c>
       <c r="R7" t="n">
-        <v>33.03</v>
+        <v>283.45</v>
       </c>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>1.07</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>25.22</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="X7" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.82</v>
-      </c>
+        <v>276.1</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>0.96</v>
+        <v>433.77</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.5</v>
+        <v>250.26</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.49</v>
+        <v>458.85</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.36</v>
-      </c>
+        <v>400.44</v>
+      </c>
+      <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>58</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.71</v>
-      </c>
+        <v>358.45</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>3.66</v>
+        <v>317.08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>461.6</v>
-      </c>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>419.84</v>
-      </c>
-      <c r="D8" t="n">
-        <v>517.1900000000001</v>
-      </c>
+        <v>417.13</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>475.5</v>
+        <v>350.38</v>
       </c>
       <c r="F8" t="n">
-        <v>667.37</v>
+        <v>350.38</v>
       </c>
       <c r="G8" t="n">
-        <v>392.84</v>
+        <v>116.68</v>
       </c>
       <c r="H8" t="n">
-        <v>577.1799999999999</v>
+        <v>150.09</v>
       </c>
       <c r="I8" t="n">
-        <v>528.34</v>
+        <v>700.79</v>
       </c>
       <c r="J8" t="n">
-        <v>442.64</v>
-      </c>
-      <c r="K8" t="n">
-        <v>684.97</v>
-      </c>
+        <v>150.09</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>466.8</v>
+        <v>116.68</v>
       </c>
       <c r="M8" t="n">
-        <v>497.89</v>
-      </c>
-      <c r="N8" t="n">
-        <v>575.2</v>
-      </c>
+        <v>400.44</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>581.6</v>
+        <v>317.08</v>
       </c>
       <c r="P8" t="n">
-        <v>433.04</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+        <v>116.68</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>116.68</v>
+      </c>
       <c r="R8" t="n">
-        <v>283.45</v>
+        <v>133.42</v>
       </c>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>476.69</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>464.31</v>
-      </c>
-      <c r="V8" t="n">
-        <v>491.25</v>
-      </c>
-      <c r="W8" t="n">
-        <v>523.88</v>
-      </c>
-      <c r="X8" t="n">
-        <v>613.96</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>510.42</v>
-      </c>
+        <v>150.09</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>603.97</v>
+        <v>433.77</v>
       </c>
       <c r="AA8" t="n">
-        <v>600.67</v>
+        <v>317.08</v>
       </c>
       <c r="AB8" t="n">
-        <v>423.18</v>
+        <v>700.79</v>
       </c>
       <c r="AC8" t="n">
-        <v>471.35</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>567.28</v>
-      </c>
+        <v>400.44</v>
+      </c>
+      <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>560.4400000000001</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>421.87</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>669.41</v>
-      </c>
+        <v>100.13</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>716.39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>First fixation duration (ms)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>383.69</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100.06</v>
-      </c>
-      <c r="D9" t="n">
-        <v>517.1900000000001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>216.85</v>
-      </c>
-      <c r="F9" t="n">
-        <v>300.31</v>
-      </c>
-      <c r="G9" t="n">
-        <v>266.96</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100.06</v>
-      </c>
-      <c r="I9" t="n">
-        <v>216.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>216.85</v>
-      </c>
-      <c r="K9" t="n">
-        <v>166.88</v>
-      </c>
-      <c r="L9" t="n">
-        <v>216.85</v>
-      </c>
-      <c r="M9" t="n">
-        <v>150.19</v>
-      </c>
-      <c r="N9" t="n">
-        <v>583.91</v>
-      </c>
-      <c r="O9" t="n">
-        <v>216.85</v>
-      </c>
-      <c r="P9" t="n">
-        <v>316.98</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>133.42</v>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>433.79</v>
-      </c>
-      <c r="U9" t="n">
-        <v>216.85</v>
-      </c>
-      <c r="V9" t="n">
-        <v>250.22</v>
-      </c>
-      <c r="W9" t="n">
-        <v>583.91</v>
-      </c>
-      <c r="X9" t="n">
-        <v>216.92</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>383.69</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>684.0599999999999</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>316.98</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>183.61</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>150.19</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>417.11</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>105.48</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>583.91</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>166.88</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>183.47</v>
+        <v>317.08</v>
       </c>
     </row>
   </sheetData>
